--- a/data/라우팅_데이터/1번_패널/1번_패널_라우팅_정보.xlsx
+++ b/data/라우팅_데이터/1번_패널/1번_패널_라우팅_정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\DADI 연구실\케이블 자동 라우팅\케이블 라우팅(2024-2025)\케이블 라우팅 프로젝트\강화학습 케이블 자동 라우팅(ICMDT 2025)\data\라우팅_데이터\1번_패널\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mplng\OneDrive\바탕 화면\강화학습 라우팅(가공학회 2025)\data\라우팅_데이터\1번_패널\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F208E-E8A5-45D2-9261-6233AEFF987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF0F5F4-7F49-4190-B10A-2D7FBD022259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terminal" sheetId="4" r:id="rId1"/>
@@ -558,6 +558,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,21 +606,12 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,36 +637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +962,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2116,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" activeCellId="1" sqref="N19 P13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2127,24 +2127,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:17" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
@@ -2166,16 +2166,16 @@
       <c r="J2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7">
@@ -2199,14 +2199,14 @@
       <c r="J3" s="12">
         <v>0</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="31"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1">
         <v>-178.13399999999999</v>
       </c>
@@ -2230,8 +2230,8 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1">
         <v>-168.01900000000001</v>
       </c>
@@ -2253,21 +2253,21 @@
       <c r="J5" s="12">
         <v>2</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="21"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="31"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1">
         <v>-157.84100000000001</v>
       </c>
@@ -2289,21 +2289,21 @@
       <c r="J6" s="11">
         <v>3</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22">
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27">
         <v>46</v>
       </c>
-      <c r="Q6" s="22"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="31"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1">
@@ -2327,15 +2327,15 @@
       <c r="J7" s="12">
         <v>4</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="31"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1">
         <v>-178.185</v>
       </c>
@@ -2357,15 +2357,15 @@
       <c r="J8" s="11">
         <v>5</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="31"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1">
         <v>-168.113</v>
       </c>
@@ -2387,15 +2387,15 @@
       <c r="J9" s="12">
         <v>6</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="31"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1">
         <v>-157.9</v>
       </c>
@@ -2419,8 +2419,8 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1">
@@ -2446,8 +2446,8 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="1">
         <v>-118.19799999999999</v>
       </c>
@@ -2471,8 +2471,8 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="31"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="1">
         <v>-108.027</v>
       </c>
@@ -2496,8 +2496,8 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="31"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="1">
         <v>-97.731999999999999</v>
       </c>
@@ -2521,8 +2521,8 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="31"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1">
@@ -2548,8 +2548,8 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1">
         <v>-118.17700000000001</v>
       </c>
@@ -2573,8 +2573,8 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="1">
         <v>-108.05500000000001</v>
       </c>
@@ -2598,8 +2598,8 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1">
         <v>-97.778999999999996</v>
       </c>
@@ -2623,8 +2623,8 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="31"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1">
@@ -2650,8 +2650,8 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="31"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="1">
         <v>-72.739000000000004</v>
       </c>
@@ -2675,8 +2675,8 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="31"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1">
@@ -2702,8 +2702,8 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="31"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="1">
         <v>-72.721999999999994</v>
       </c>
@@ -2727,8 +2727,8 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="37" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1">
@@ -2754,8 +2754,8 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="31"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1">
         <v>-47.103000000000002</v>
       </c>
@@ -2779,8 +2779,8 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="1">
         <v>-36.880000000000003</v>
       </c>
@@ -2804,8 +2804,8 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1">
         <v>-26.859000000000002</v>
       </c>
@@ -2829,8 +2829,8 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="31"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="1">
@@ -2856,8 +2856,8 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="31"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="1">
         <v>-47.097000000000001</v>
       </c>
@@ -2881,8 +2881,8 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="1">
         <v>-36.863</v>
       </c>
@@ -2906,8 +2906,8 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="32"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="5">
         <v>-26.875</v>
       </c>
@@ -2931,10 +2931,10 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="7">
@@ -2960,8 +2960,8 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="19"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="1">
         <v>-175.47200000000001</v>
       </c>
@@ -2985,8 +2985,8 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="1">
         <v>-193.31</v>
       </c>
@@ -3010,8 +3010,8 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="19"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1">
@@ -3037,8 +3037,8 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="1">
         <v>-175.505</v>
       </c>
@@ -3062,8 +3062,8 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="19"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="1">
         <v>-193.32400000000001</v>
       </c>
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="19"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="1">
@@ -3114,8 +3114,8 @@
       </c>
     </row>
     <row r="38" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="19"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="1">
         <v>-133.441</v>
       </c>
@@ -3139,8 +3139,8 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="19"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="1">
@@ -3166,8 +3166,8 @@
       </c>
     </row>
     <row r="40" spans="2:10" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="20"/>
-      <c r="C40" s="36"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="5">
         <v>-115.205</v>
       </c>
@@ -3192,16 +3192,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="K6:O9"/>
-    <mergeCell ref="C39:C40"/>
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="P6:Q6"/>
@@ -3215,6 +3205,16 @@
     <mergeCell ref="B3:B30"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:O9"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3235,24 +3235,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
@@ -3273,10 +3273,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7">
@@ -3299,8 +3299,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="19"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="1">
         <v>-175.47200000000001</v>
       </c>
@@ -3321,8 +3321,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="1">
         <v>-193.31</v>
       </c>
@@ -3343,8 +3343,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="19"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1">
@@ -3367,8 +3367,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="19"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1">
         <v>-175.505</v>
       </c>
@@ -3389,8 +3389,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="19"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="1">
         <v>-193.32400000000001</v>
       </c>
@@ -3411,8 +3411,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1">
@@ -3435,8 +3435,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="19"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="1">
         <v>-133.441</v>
       </c>
@@ -3457,8 +3457,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1">
@@ -3481,8 +3481,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="20"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="5">
         <v>-115.205</v>
       </c>
@@ -3522,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3532,20 +3532,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="45"/>
@@ -3570,10 +3570,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
@@ -3596,8 +3596,8 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="31"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1">
         <v>-178.13399999999999</v>
       </c>
@@ -3618,8 +3618,8 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="31"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1">
         <v>-168.01900000000001</v>
       </c>
@@ -3640,8 +3640,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="31"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1">
         <v>-157.84100000000001</v>
       </c>
@@ -3662,8 +3662,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="31"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1">
@@ -3686,8 +3686,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="31"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1">
         <v>-178.185</v>
       </c>
@@ -3708,8 +3708,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="31"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1">
         <v>-168.113</v>
       </c>
@@ -3730,8 +3730,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="31"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1">
         <v>-157.9</v>
       </c>
@@ -3752,8 +3752,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="31"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1">
@@ -3776,8 +3776,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="1">
         <v>-118.19799999999999</v>
       </c>
@@ -3798,8 +3798,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="31"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="1">
         <v>-108.027</v>
       </c>
@@ -3820,8 +3820,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="31"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="1">
         <v>-97.731999999999999</v>
       </c>
@@ -3842,8 +3842,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="31"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1">
@@ -3866,8 +3866,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="1">
         <v>-118.17700000000001</v>
       </c>
@@ -3888,8 +3888,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="1">
         <v>-108.05500000000001</v>
       </c>
@@ -3910,8 +3910,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1">
         <v>-97.778999999999996</v>
       </c>
@@ -3932,8 +3932,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="31"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1">
@@ -3956,8 +3956,8 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="31"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="1">
         <v>-72.739000000000004</v>
       </c>
@@ -3978,8 +3978,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="31"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1">
@@ -4002,8 +4002,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="31"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="1">
         <v>-72.721999999999994</v>
       </c>
@@ -4024,8 +4024,8 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="31"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="37" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1">
@@ -4048,8 +4048,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="31"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="1">
         <v>-47.103000000000002</v>
       </c>
@@ -4070,8 +4070,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="31"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="1">
         <v>-36.880000000000003</v>
       </c>
@@ -4092,8 +4092,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="1">
         <v>-26.859000000000002</v>
       </c>
@@ -4114,8 +4114,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="31"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="1">
@@ -4138,8 +4138,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="31"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="1">
         <v>-47.097000000000001</v>
       </c>
@@ -4160,8 +4160,8 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="1">
         <v>-36.863</v>
       </c>
@@ -4182,8 +4182,8 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="32"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="5">
         <v>-26.875</v>
       </c>
@@ -4205,11 +4205,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C27:C30"/>
@@ -4217,6 +4212,11 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B3:B30"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
